--- a/dev/example/model/birddata.xlsx
+++ b/dev/example/model/birddata.xlsx
@@ -10,23 +10,32 @@
     <sheet name="packages" sheetId="1" r:id="rId1"/>
     <sheet name="entities" sheetId="2" r:id="rId2"/>
     <sheet name="attributes" sheetId="3" r:id="rId3"/>
-    <sheet name="birddata_species" sheetId="4" r:id="rId4"/>
-    <sheet name="birddata_states" sheetId="5" r:id="rId5"/>
+    <sheet name="birdData_species" sheetId="4" r:id="rId4"/>
+    <sheet name="birdDataRefs_states" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
-  <si>
-    <t>birddata</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="111">
+  <si>
+    <t>birdData</t>
+  </si>
+  <si>
+    <t>birdDataRefs</t>
   </si>
   <si>
     <t>Bird Data</t>
   </si>
   <si>
-    <t>Reporting Rates of Australian Birds (v0.9, 2022-01-01)</t>
+    <t>Bird Data References</t>
+  </si>
+  <si>
+    <t>Reporting Rates of Australian Birds (v0.91, 2021-09-14)</t>
+  </si>
+  <si>
+    <t>Reference Tables for birdData (v0.9, 2021-09-14)</t>
   </si>
   <si>
     <t>species</t>
@@ -53,6 +62,12 @@
     <t>Australian States and Codes</t>
   </si>
   <si>
+    <t>birdData_species</t>
+  </si>
+  <si>
+    <t>birdDataRefs_states</t>
+  </si>
+  <si>
     <t>birdID</t>
   </si>
   <si>
@@ -144,6 +159,9 @@
   </si>
   <si>
     <t>lookupAttribute</t>
+  </si>
+  <si>
+    <t>auto</t>
   </si>
   <si>
     <t>b1</t>
@@ -679,7 +697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,13 +705,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -701,10 +719,21 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -722,19 +751,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -742,33 +771,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -778,53 +807,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -833,24 +865,24 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -859,24 +891,24 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -885,24 +917,24 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -911,24 +943,24 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -937,18 +969,18 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -957,18 +989,18 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -977,18 +1009,18 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -997,13 +1029,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1021,30 +1053,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D2">
         <v>827073</v>
@@ -1055,13 +1087,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>639974</v>
@@ -1072,13 +1104,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>583676</v>
@@ -1089,13 +1121,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>511975</v>
@@ -1106,13 +1138,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>473094</v>
@@ -1123,13 +1155,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <v>457405</v>
@@ -1140,13 +1172,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <v>453342</v>
@@ -1157,13 +1189,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D9">
         <v>442306</v>
@@ -1174,13 +1206,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D10">
         <v>427747</v>
@@ -1191,13 +1223,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>423237</v>
@@ -1208,13 +1240,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>417690</v>
@@ -1225,13 +1257,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>383926</v>
@@ -1242,13 +1274,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>379833</v>
@@ -1259,13 +1291,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D15">
         <v>375735</v>
@@ -1276,13 +1308,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D16">
         <v>357750</v>
@@ -1306,101 +1338,101 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
